--- a/docs/access_level.xlsx
+++ b/docs/access_level.xlsx
@@ -1,25 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/ServBay/www/admin.dright.net/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A49ED7-5D75-7941-8DE5-D502AC40AA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>doctor_profiles</t>
+  </si>
+  <si>
+    <t>Sub Module</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>add_theme</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>List all builder doctors</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>hospital_profiles</t>
+  </si>
+  <si>
+    <t>List all builder hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add hospital builder profile </t>
+  </si>
+  <si>
+    <t>Delete hospital builder profile</t>
+  </si>
+  <si>
+    <t>hospital builder profile theme setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add doctor builder profile </t>
+  </si>
+  <si>
+    <t>Delete doctor builder profile</t>
+  </si>
+  <si>
+    <t>doctor builder profile theme setting</t>
+  </si>
+  <si>
+    <t>banners</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>banners for builder</t>
+  </si>
+  <si>
+    <t>add new banner for builder</t>
+  </si>
+  <si>
+    <t>update banner for builder</t>
+  </si>
+  <si>
+    <t>delete banner for builder</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>profiles</t>
+  </si>
+  <si>
+    <t>list all extended profiles</t>
+  </si>
+  <si>
+    <t>add new extended profile</t>
+  </si>
+  <si>
+    <t>update extended profile</t>
+  </si>
+  <si>
+    <t>delete extended profile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,17 +169,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +256,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C997826-47ED-8A4A-998D-E9105ADD8CD4}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:F33" xr:uid="{6C997826-47ED-8A4A-998D-E9105ADD8CD4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4ACFB618-6CE4-3E45-8D27-EF5F44BDE7A6}" name="Sr No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{483F57D6-EE06-E64D-9EBC-E44936A98E5E}" name="Module" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6821319E-6894-C948-8A74-696992564276}" name="Sub Module" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6DA88769-2C52-3148-861A-D291D46D639D}" name="Action" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B05DC771-0331-494E-A48A-1C14C3BF8B4F}" name="Key" dataDxfId="6">
+      <calculatedColumnFormula>B2&amp;"_"&amp;C2&amp;"_"&amp;D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5CD14610-EB5A-9B49-938D-DB8E2A286C22}" name="Description" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28B1AC1B-9552-604C-A174-5A8BF3B0C330}" name="Table2" displayName="Table2" ref="H1:H33" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="H1:H33" xr:uid="{28B1AC1B-9552-604C-A174-5A8BF3B0C330}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{76B43A04-053F-4845-B2AC-1B20F2ED9675}" name="SQL" dataDxfId="1">
+      <calculatedColumnFormula>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +549,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="68.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;D2</f>
+        <v>builder_doctor_profiles_list</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_list', 'List All Builder Doctors');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E17" si="0">B3&amp;"_"&amp;C3&amp;"_"&amp;D3</f>
+        <v>builder_doctor_profiles_add</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_add', 'Add Doctor Builder Profile ');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_doctor_profiles_delete</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_delete', 'Delete Doctor Builder Profile');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_doctor_profiles_add_theme</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_add_theme', 'Doctor Builder Profile Theme Setting');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_hospital_profiles_list</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_list', 'List All Builder Hospital');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_hospital_profiles_add</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_add', 'Add Hospital Builder Profile ');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_hospital_profiles_delete</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_delete', 'Delete Hospital Builder Profile');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_hospital_profiles_add_theme</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_add_theme', 'Hospital Builder Profile Theme Setting');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_banners_list</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_list', 'Banners For Builder');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_banners_add</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_add', 'Add New Banner For Builder');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_banners_update</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_update', 'Update Banner For Builder');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>builder_banners_delete</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_delete', 'Delete Banner For Builder');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>extended_profiles_list</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_list', 'List All Extended Profiles');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>extended_profiles_add</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_add', 'Add New Extended Profile');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>extended_profiles_update</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_update', 'Update Extended Profile');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>extended_profiles_delete</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_delete', 'Delete Extended Profile');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="str">
+        <f t="shared" ref="E18:E33" si="1">B18&amp;"_"&amp;C18&amp;"_"&amp;D18</f>
+        <v>__</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="H18" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="H19" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="H20" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="H22" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="H25" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="H27" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="H28" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="H29" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="H31" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="H32" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>__</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/access_level.xlsx
+++ b/docs/access_level.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/ServBay/www/admin.dright.net/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A49ED7-5D75-7941-8DE5-D502AC40AA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="21765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Sr No</t>
   </si>
@@ -138,12 +126,147 @@
   </si>
   <si>
     <t>delete extended profile</t>
+  </si>
+  <si>
+    <t>default_lookup</t>
+  </si>
+  <si>
+    <t>delete extended lookup</t>
+  </si>
+  <si>
+    <t>list extended lookup</t>
+  </si>
+  <si>
+    <t>add extended lookup</t>
+  </si>
+  <si>
+    <t>update extended lookup</t>
+  </si>
+  <si>
+    <t>default_configration</t>
+  </si>
+  <si>
+    <t>list extended configration</t>
+  </si>
+  <si>
+    <t>add extended configration</t>
+  </si>
+  <si>
+    <t>update extended configration</t>
+  </si>
+  <si>
+    <t>delete extended configration</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>list invoice</t>
+  </si>
+  <si>
+    <t>delelte invoice</t>
+  </si>
+  <si>
+    <t>update invoice</t>
+  </si>
+  <si>
+    <t>add invoice</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">items add </t>
+  </si>
+  <si>
+    <t>items update</t>
+  </si>
+  <si>
+    <t>items delete</t>
+  </si>
+  <si>
+    <t>items list</t>
+  </si>
+  <si>
+    <t>investigation</t>
+  </si>
+  <si>
+    <t>lab_report</t>
+  </si>
+  <si>
+    <t>list_parameters</t>
+  </si>
+  <si>
+    <t>add lad reports</t>
+  </si>
+  <si>
+    <t>delete lab report</t>
+  </si>
+  <si>
+    <t>list report</t>
+  </si>
+  <si>
+    <t>list lab parameters</t>
+  </si>
+  <si>
+    <t>update lab report</t>
+  </si>
+  <si>
+    <t>radiology</t>
+  </si>
+  <si>
+    <t>radiology list</t>
+  </si>
+  <si>
+    <t>radiology add</t>
+  </si>
+  <si>
+    <t>radiology update</t>
+  </si>
+  <si>
+    <t>radiology delete</t>
+  </si>
+  <si>
+    <t>radiology list parameter</t>
+  </si>
+  <si>
+    <t>pharmacy</t>
+  </si>
+  <si>
+    <t>update Pharamcy Profile</t>
+  </si>
+  <si>
+    <t>add Pharamcy Profile</t>
+  </si>
+  <si>
+    <t>pharamcy profile list</t>
+  </si>
+  <si>
+    <t>delete Pharamcy Profile</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>pharmacy medicine list</t>
+  </si>
+  <si>
+    <t>pharmacy medicine add</t>
+  </si>
+  <si>
+    <t>pharmacy medicine update</t>
+  </si>
+  <si>
+    <t>pharmacy medicine delete</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,23 +329,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -240,10 +357,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,29 +386,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C997826-47ED-8A4A-998D-E9105ADD8CD4}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:F33" xr:uid="{6C997826-47ED-8A4A-998D-E9105ADD8CD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F67" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:F67"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4ACFB618-6CE4-3E45-8D27-EF5F44BDE7A6}" name="Sr No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{483F57D6-EE06-E64D-9EBC-E44936A98E5E}" name="Module" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6821319E-6894-C948-8A74-696992564276}" name="Sub Module" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6DA88769-2C52-3148-861A-D291D46D639D}" name="Action" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B05DC771-0331-494E-A48A-1C14C3BF8B4F}" name="Key" dataDxfId="6">
+    <tableColumn id="1" name="Sr No" dataDxfId="8"/>
+    <tableColumn id="2" name="Module" dataDxfId="7"/>
+    <tableColumn id="3" name="Sub Module" dataDxfId="6"/>
+    <tableColumn id="4" name="Action" dataDxfId="5"/>
+    <tableColumn id="5" name="Key" dataDxfId="4">
       <calculatedColumnFormula>B2&amp;"_"&amp;C2&amp;"_"&amp;D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5CD14610-EB5A-9B49-938D-DB8E2A286C22}" name="Description" dataDxfId="5"/>
+    <tableColumn id="6" name="Description" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28B1AC1B-9552-604C-A174-5A8BF3B0C330}" name="Table2" displayName="Table2" ref="H1:H33" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="H1:H33" xr:uid="{28B1AC1B-9552-604C-A174-5A8BF3B0C330}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{76B43A04-053F-4845-B2AC-1B20F2ED9675}" name="SQL" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:I61" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="H1:I61"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SQL" dataDxfId="1">
       <calculatedColumnFormula>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,27 +677,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +719,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -616,8 +747,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_list', 'List All Builder Doctors');</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -641,8 +773,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_add', 'Add Doctor Builder Profile ');</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -666,8 +799,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_delete', 'Delete Doctor Builder Profile');</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -691,8 +825,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_add_theme', 'Doctor Builder Profile Theme Setting');</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -716,8 +851,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_list', 'List All Builder Hospital');</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -741,8 +877,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_add', 'Add Hospital Builder Profile ');</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -766,8 +903,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_delete', 'Delete Hospital Builder Profile');</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -791,8 +929,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_hospital_profiles_add_theme', 'Hospital Builder Profile Theme Setting');</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -816,8 +955,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_list', 'Banners For Builder');</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -841,8 +981,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_add', 'Add New Banner For Builder');</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -866,8 +1007,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_update', 'Update Banner For Builder');</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -891,8 +1033,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_banners_delete', 'Delete Banner For Builder');</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -916,8 +1059,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_list', 'List All Extended Profiles');</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -941,8 +1085,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_add', 'Add New Extended Profile');</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -966,8 +1111,9 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_update', 'Update Extended Profile');</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -991,287 +1137,1159 @@
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_profiles_delete', 'Delete Extended Profile');</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" ref="E18:E33" si="1">B18&amp;"_"&amp;C18&amp;"_"&amp;D18</f>
-        <v>__</v>
-      </c>
-      <c r="F18" s="2"/>
+        <f>B18&amp;"_"&amp;C18&amp;"_"&amp;D18</f>
+        <v>extended_default_lookup_list</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H18" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_lookup_list', 'List Extended Lookup');</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F19" s="2"/>
+        <f t="shared" ref="E19:E33" si="1">B19&amp;"_"&amp;C19&amp;"_"&amp;D19</f>
+        <v>extended_default_lookup_add</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_lookup_add', 'Add Extended Lookup');</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>extended_default_lookup_update</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_lookup_update', 'Update Extended Lookup');</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>extended_default_lookup_delete</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_lookup_delete', 'Delete Extended Lookup');</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F22" s="2"/>
+        <f>B22&amp;"_"&amp;C22&amp;"_"&amp;D22</f>
+        <v>extended_default_configration_list</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_configration_list', 'List Extended Configration');</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>extended_default_configration_add</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_configration_add', 'Add Extended Configration');</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>extended_default_configration_update</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_configration_update', 'Update Extended Configration');</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>extended_default_configration_delete</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Extended', 'extended_default_configration_delete', 'Delete Extended Configration');</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F26" s="2"/>
+        <f>B26&amp;"_"&amp;C26&amp;"_"&amp;D26</f>
+        <v>invoice_invoice_add</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_invoice_add', 'Add Invoice');</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>invoice_invoice_update</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_invoice_update', 'Update Invoice');</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>invoice_invoice_delete</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_invoice_delete', 'Delelte Invoice');</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F29" s="2"/>
+        <f>B29&amp;"_"&amp;C29&amp;"_"&amp;D29</f>
+        <v>invoice_invoice_list</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_invoice_list', 'List Invoice');</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>invoice_items_add</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_items_add', 'Items Add ');</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>invoice_items_update</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H31" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_items_update', 'Items Update');</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>__</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>invoice_items_delete</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H32" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_items_delete', 'Items Delete');</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>invoice_items_list</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Invoice', 'invoice_items_list', 'Items List');</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>B34&amp;"_"&amp;C34&amp;"_"&amp;D34</f>
+        <v>investigation_lab_report_add</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_lab_report_add', 'Add Lad Reports');</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" ref="E35:E67" si="2">B35&amp;"_"&amp;C35&amp;"_"&amp;D35</f>
+        <v>investigation_lab_report_update</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_lab_report_update', 'Update Lab Report');</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_lab_report_delete</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_lab_report_delete', 'Delete Lab Report');</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f>B37&amp;"_"&amp;C37&amp;"_"&amp;D37</f>
+        <v>investigation_lab_report_list</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_lab_report_list', 'List Report');</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_lab_report_list_parameters</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_lab_report_list_parameters', 'List Lab Parameters');</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_radiology_list</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_radiology_list', 'Radiology List');</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_radiology_add</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_radiology_add', 'Radiology Add');</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_radiology_update</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_radiology_update', 'Radiology Update');</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_radiology_delete</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_radiology_delete', 'Radiology Delete');</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>investigation_radiology_list_parameters</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Investigation', 'investigation_radiology_list_parameters', 'Radiology List Parameter');</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_profiles_list</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_profiles_list', 'Pharamcy Profile List');</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_profiles_add</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_profiles_add', 'Add Pharamcy Profile');</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_profiles_update</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_profiles_update', 'Update Pharamcy Profile');</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_profiles_delete</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_profiles_delete', 'Delete Pharamcy Profile');</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_medicine_list</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_medicine_list', 'Pharmacy Medicine List');</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>32</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_medicine_add</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_medicine_add', 'Pharmacy Medicine Add');</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>32</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_medicine_update</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_medicine_update', 'Pharmacy Medicine Update');</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>32</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_medicine_delete</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Pharmacy', 'pharmacy_medicine_delete', 'Pharmacy Medicine Delete');</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>__</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="H33" s="6" t="str">
+      <c r="F52" s="2"/>
+      <c r="H52" s="6" t="str">
         <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
         <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
       </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>32</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="H53" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>32</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="H54" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>32</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="H55" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>32</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="H56" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="H57" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="H58" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="H59" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>32</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="H60" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>32</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="H61" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>32</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>32</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>32</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>32</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>32</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>__</v>
+      </c>
+      <c r="F67" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E2:E21 E23:E33">
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/access_level.xlsx
+++ b/docs/access_level.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="111">
   <si>
     <t>Sr No</t>
   </si>
@@ -261,19 +261,121 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>list builder images</t>
+  </si>
+  <si>
+    <t>add builder images</t>
+  </si>
+  <si>
+    <t>delete builder images</t>
+  </si>
+  <si>
+    <t>sponser</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Update doctor builder profile</t>
+  </si>
+  <si>
+    <t>specialities</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>Sponser List</t>
+  </si>
+  <si>
+    <t>sponser delete</t>
+  </si>
+  <si>
+    <t>sponser update</t>
+  </si>
+  <si>
+    <t>sponser add</t>
+  </si>
+  <si>
+    <t>sponser product</t>
+  </si>
+  <si>
+    <t>laboratories</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>supportvideos</t>
+  </si>
+  <si>
+    <t>diet_category</t>
+  </si>
+  <si>
+    <t>diet_fact</t>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>discount_offer</t>
+  </si>
+  <si>
+    <t>discount_center_doctor</t>
+  </si>
+  <si>
+    <t>clinta_member</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>shift_to_premium</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>rcc</t>
+  </si>
+  <si>
+    <t>receipts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,11 +427,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -342,7 +474,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -386,30 +525,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F67" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:F67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F120" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:F120"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Sr No" dataDxfId="8"/>
-    <tableColumn id="2" name="Module" dataDxfId="7"/>
-    <tableColumn id="3" name="Sub Module" dataDxfId="6"/>
-    <tableColumn id="4" name="Action" dataDxfId="5"/>
-    <tableColumn id="5" name="Key" dataDxfId="4">
+    <tableColumn id="1" name="Sr No" dataDxfId="11"/>
+    <tableColumn id="2" name="Module" dataDxfId="10"/>
+    <tableColumn id="3" name="Sub Module" dataDxfId="9"/>
+    <tableColumn id="4" name="Action" dataDxfId="8"/>
+    <tableColumn id="5" name="Key" dataDxfId="1">
       <calculatedColumnFormula>B2&amp;"_"&amp;C2&amp;"_"&amp;D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="Description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:I61" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="H1:I61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:I122" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="H1:I122"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SQL" dataDxfId="1">
+    <tableColumn id="1" name="SQL" dataDxfId="3">
       <calculatedColumnFormula>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" name="Column1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +831,7 @@
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="68.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -750,7 +889,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -776,7 +915,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -802,7 +941,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -828,7 +967,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -854,7 +993,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -880,7 +1019,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -906,7 +1045,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -932,7 +1071,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -958,7 +1097,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -984,7 +1123,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1010,7 +1149,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1036,7 +1175,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1062,7 +1201,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1088,7 +1227,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1114,7 +1253,7 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1140,7 +1279,7 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1166,7 +1305,7 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1192,7 +1331,7 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1218,7 +1357,7 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1244,7 +1383,7 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1270,7 +1409,7 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1296,7 +1435,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1322,7 +1461,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1348,7 +1487,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1374,7 +1513,7 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1400,7 +1539,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1426,7 +1565,7 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1452,7 +1591,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1478,7 +1617,7 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1504,7 +1643,7 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1530,7 +1669,7 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1556,8 +1695,8 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>32</v>
+      <c r="A34" s="4">
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>54</v>
@@ -1582,8 +1721,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>32</v>
+      <c r="A35" s="4">
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -1595,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" ref="E35:E67" si="2">B35&amp;"_"&amp;C35&amp;"_"&amp;D35</f>
+        <f t="shared" ref="E35:E82" si="2">B35&amp;"_"&amp;C35&amp;"_"&amp;D35</f>
         <v>investigation_lab_report_update</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1608,8 +1747,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>32</v>
+      <c r="A36" s="4">
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>54</v>
@@ -1633,9 +1772,9 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>32</v>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>54</v>
@@ -1660,8 +1799,8 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>32</v>
+      <c r="A38" s="4">
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>54</v>
@@ -1685,9 +1824,9 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>32</v>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>54</v>
@@ -1711,9 +1850,9 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>32</v>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
@@ -1738,8 +1877,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>32</v>
+      <c r="A41" s="4">
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>54</v>
@@ -1764,8 +1903,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>32</v>
+      <c r="A42" s="4">
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>54</v>
@@ -1790,8 +1929,8 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>32</v>
+      <c r="A43" s="4">
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>54</v>
@@ -1815,9 +1954,9 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>32</v>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>68</v>
@@ -1841,9 +1980,9 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>32</v>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>68</v>
@@ -1868,8 +2007,8 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>32</v>
+      <c r="A46" s="4">
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>68</v>
@@ -1894,8 +2033,8 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>32</v>
+      <c r="A47" s="4">
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -1920,8 +2059,8 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>32</v>
+      <c r="A48" s="4">
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>68</v>
@@ -1946,8 +2085,8 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>32</v>
+      <c r="A49" s="4">
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>68</v>
@@ -1972,8 +2111,8 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>32</v>
+      <c r="A50" s="4">
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>68</v>
@@ -1998,8 +2137,8 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>32</v>
+      <c r="A51" s="4">
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
@@ -2024,266 +2163,1787 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>32</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>B52&amp;"_"&amp;C52&amp;"_"&amp;D52</f>
+        <v>builder_images_list</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_images_list', 'List Builder Images');</v>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_images_add</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_images_add', 'Add Builder Images');</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_images_delete</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_images_delete', 'Delete Builder Images');</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f>B55&amp;"_"&amp;C55&amp;"_"&amp;D55</f>
+        <v>builder_sponser_list</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_sponser_list', 'Sponser List');</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_sponser_delete</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_sponser_delete', 'Sponser Delete');</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_sponser_update</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_sponser_update', 'Sponser Update');</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_sponser_add</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_sponser_add', 'Sponser Add');</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_sponser_product</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_sponser_product', 'Sponser Product');</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_doctor_profiles_update</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_doctor_profiles_update', 'Update Doctor Builder Profile');</v>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f>B61&amp;"_"&amp;C61&amp;"_"&amp;D61</f>
+        <v>builder_specialities_list</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f>B61&amp;" "&amp;C61&amp;" "&amp;D61</f>
+        <v>builder specialities list</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_list', 'Builder Specialities List');</v>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_specialities_add</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" ref="F62:F97" si="3">B62&amp;" "&amp;C62&amp;" "&amp;D62</f>
+        <v>builder specialities add</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_add', 'Builder Specialities Add');</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_specialities_update</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>builder specialities update</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_update', 'Builder Specialities Update');</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_specialities_delete</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>builder specialities delete</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_delete', 'Builder Specialities Delete');</v>
+      </c>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_specialities_heading</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>builder specialities heading</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_heading', 'Builder Specialities Heading');</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>builder_specialities_gallery</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>builder specialities gallery</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Builder', 'builder_specialities_gallery', 'Builder Specialities Gallery');</v>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>laboratories_laboratories_list</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>laboratories laboratories list</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Laboratories', 'laboratories_laboratories_list', 'Laboratories Laboratories List');</v>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>laboratories_laboratories_add</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>laboratories laboratories add</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Laboratories', 'laboratories_laboratories_add', 'Laboratories Laboratories Add');</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>laboratories_laboratories_update</v>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>laboratories laboratories update</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Laboratories', 'laboratories_laboratories_update', 'Laboratories Laboratories Update');</v>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>laboratories_laboratories_delete</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>laboratories laboratories delete</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Laboratories', 'laboratories_laboratories_delete', 'Laboratories Laboratories Delete');</v>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_supportvideos_list</v>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare supportvideos list</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_supportvideos_list', 'Healthcare Supportvideos List');</v>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_supportvideos_add</v>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare supportvideos add</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_supportvideos_add', 'Healthcare Supportvideos Add');</v>
+      </c>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_supportvideos_update</v>
+      </c>
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare supportvideos update</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_supportvideos_update', 'Healthcare Supportvideos Update');</v>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_supportvideos_delete</v>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare supportvideos delete</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_supportvideos_delete', 'Healthcare Supportvideos Delete');</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diet_category_list</v>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diet_category list</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diet_category_list', 'Healthcare Diet_Category List');</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diet_category_add</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diet_category add</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diet_category_add', 'Healthcare Diet_Category Add');</v>
+      </c>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diet_category_update</v>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diet_category update</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diet_category_update', 'Healthcare Diet_Category Update');</v>
+      </c>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diet_category_delete</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diet_category delete</v>
+      </c>
+      <c r="H78" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diet_category_delete', 'Healthcare Diet_Category Delete');</v>
+      </c>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diet_fact_list</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diet_fact list</v>
+      </c>
+      <c r="H79" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diet_fact_list', 'Healthcare Diet_Fact List');</v>
+      </c>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diseases_add</v>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diseases add</v>
+      </c>
+      <c r="H80" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diseases_add', 'Healthcare Diseases Add');</v>
+      </c>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diseases_update</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diseases update</v>
+      </c>
+      <c r="H81" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diseases_update', 'Healthcare Diseases Update');</v>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>healthcare_diseases_delete</v>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diseases delete</v>
+      </c>
+      <c r="H82" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diseases_delete', 'Healthcare Diseases Delete');</v>
+      </c>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="7" t="str">
+        <f t="shared" ref="E83:E96" si="4">B83&amp;"_"&amp;C83&amp;"_"&amp;D83</f>
+        <v>healthcare_diseases_list</v>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare diseases list</v>
+      </c>
+      <c r="H83" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_diseases_list', 'Healthcare Diseases List');</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_branches_add</v>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare branches add</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_branches_add', 'Healthcare Branches Add');</v>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_branches_update</v>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare branches update</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_branches_update', 'Healthcare Branches Update');</v>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_branches_delete</v>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare branches delete</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_branches_delete', 'Healthcare Branches Delete');</v>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_branches_list</v>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare branches list</v>
+      </c>
+      <c r="H87" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_branches_list', 'Healthcare Branches List');</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_add</v>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount add</v>
+      </c>
+      <c r="H88" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_add', 'Healthcare Discount Add');</v>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_update</v>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount update</v>
+      </c>
+      <c r="H89" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_update', 'Healthcare Discount Update');</v>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_delete</v>
+      </c>
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount delete</v>
+      </c>
+      <c r="H90" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_delete', 'Healthcare Discount Delete');</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_list</v>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount list</v>
+      </c>
+      <c r="H91" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_list', 'Healthcare Discount List');</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_offer_list</v>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount_offer list</v>
+      </c>
+      <c r="H92" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_offer_list', 'Healthcare Discount_Offer List');</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_discount_center_doctor_list</v>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare discount_center_doctor list</v>
+      </c>
+      <c r="H93" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_discount_center_doctor_list', 'Healthcare Discount_Center_Doctor List');</v>
+      </c>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_customer_add</v>
+      </c>
+      <c r="F94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare customer add</v>
+      </c>
+      <c r="H94" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_customer_add', 'Healthcare Customer Add');</v>
+      </c>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_customer_update</v>
+      </c>
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare customer update</v>
+      </c>
+      <c r="H95" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_customer_update', 'Healthcare Customer Update');</v>
+      </c>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthcare_customer_delete</v>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare customer delete</v>
+      </c>
+      <c r="H96" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_customer_delete', 'Healthcare Customer Delete');</v>
+      </c>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="7" t="str">
+        <f>B97&amp;"_"&amp;C97&amp;"_"&amp;D97</f>
+        <v>healthcare_customer_list</v>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>healthcare customer list</v>
+      </c>
+      <c r="H97" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_customer_list', 'Healthcare Customer List');</v>
+      </c>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="7" t="str">
+        <f>B98&amp;"_"&amp;C98&amp;"_"&amp;D98</f>
+        <v>healthcare_clinta_member_list</v>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" ref="F98:F120" si="5">B98&amp;" "&amp;C98&amp;" "&amp;D98</f>
+        <v>healthcare clinta_member list</v>
+      </c>
+      <c r="H98" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_clinta_member_list', 'Healthcare Clinta_Member List');</v>
+      </c>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="7" t="str">
+        <f t="shared" ref="E98:E120" si="6">B99&amp;"_"&amp;C99&amp;"_"&amp;D99</f>
+        <v>healthcare_clinta_member_shift_to_premium</v>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare clinta_member shift_to_premium</v>
+      </c>
+      <c r="H99" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_clinta_member_shift_to_premium', 'Healthcare Clinta_Member Shift_To_Premium');</v>
+      </c>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_clinta_member_details</v>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare clinta_member details</v>
+      </c>
+      <c r="H100" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_clinta_member_details', 'Healthcare Clinta_Member Details');</v>
+      </c>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_customer_profile</v>
+      </c>
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare customer profile</v>
+      </c>
+      <c r="H101" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_customer_profile', 'Healthcare Customer Profile');</v>
+      </c>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_rcc_list</v>
+      </c>
+      <c r="F102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare rcc list</v>
+      </c>
+      <c r="H102" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_rcc_list', 'Healthcare Rcc List');</v>
+      </c>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_rcc_add</v>
+      </c>
+      <c r="F103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare rcc add</v>
+      </c>
+      <c r="H103" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_rcc_add', 'Healthcare Rcc Add');</v>
+      </c>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_rcc_update</v>
+      </c>
+      <c r="F104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare rcc update</v>
+      </c>
+      <c r="H104" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_rcc_update', 'Healthcare Rcc Update');</v>
+      </c>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_rcc_delete</v>
+      </c>
+      <c r="F105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare rcc delete</v>
+      </c>
+      <c r="H105" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_rcc_delete', 'Healthcare Rcc Delete');</v>
+      </c>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>healthcare_rcc_receipts</v>
+      </c>
+      <c r="F106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>healthcare rcc receipts</v>
+      </c>
+      <c r="H106" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( 'Healthcare', 'healthcare_rcc_receipts', 'Healthcare Rcc Receipts');</v>
+      </c>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="H52" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>32</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H107" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="H53" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>32</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H108" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="H54" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>32</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H109" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="H55" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H110" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="H56" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>32</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H111" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="H57" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>32</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H112" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="H58" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>32</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H113" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="H59" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>32</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H114" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="H60" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>32</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H115" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="H61" s="6" t="str">
-        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
-        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '');</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>32</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H116" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>32</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H117" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>32</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H118" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>32</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="F119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H119" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>__</v>
       </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>32</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>__</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>32</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>__</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="F120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H120" s="6" t="str">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '', '__', '  ');</v>
+      </c>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="6" t="e">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="6" t="e">
+        <f>"INSERT INTO `admin_access` ( `Module`, `AccessKey`, `Description`) VALUES ( '"&amp;PROPER(Table1[[#This Row],[Module]])&amp;"', '"&amp;Table1[[#This Row],[Key]]&amp;"', '"&amp;PROPER(Table1[[#This Row],[Description]])&amp;"');"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I122" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E21 E23:E33">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
